--- a/xlsx/FR/tax_transfers_effect_FR.xlsx
+++ b/xlsx/FR/tax_transfers_effect_FR.xlsx
@@ -12,30 +12,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">be a costly way to fight climate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have a large effect&lt;br&gt;on the FR economy and employment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have a negative effect&lt;br&gt;on the FR economy and employment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reduce air pollution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reduce the use of fossil fuels&lt;br&gt;and greenhouse gas emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encourage people and companies to insulate buildings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encourage people to drive less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neither agree nor disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly agree</t>
   </si>
 </sst>
 </file>
@@ -380,61 +395,147 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.0265368408845594</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.0345445021689051</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.0518134026254008</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0580110687655662</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0509914615387224</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0425165924123691</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.130953430190469</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.0864004803732454</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.0726828975702627</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.179747457634012</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0695571548224767</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0927669197782072</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0843017054681842</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.154114453720929</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.398672425347852</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.502869949644566</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.46407508746193</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.289971410996262</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.328234028094857</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.236978263014128</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.29187371879788</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.352796797369727</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.295037221949398</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.204696631362714</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.37619701004451</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.370503490415766</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.457888355158114</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.340348648763688</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.135593456024617</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0948654286668679</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0996674209159439</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.206263355371186</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.157504100172448</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.178315083947205</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0827097485270357</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/tax_transfers_effect_FR.xlsx
+++ b/xlsx/FR/tax_transfers_effect_FR.xlsx
@@ -413,25 +413,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0265368408845594</v>
+        <v>0.0275305272367295</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0345445021689051</v>
+        <v>0.0384162921021351</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0518134026254008</v>
+        <v>0.0641584825655956</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0580110687655662</v>
+        <v>0.0596396663160892</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0509914615387224</v>
+        <v>0.051118701346812</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0425165924123691</v>
+        <v>0.0348896767032688</v>
       </c>
       <c r="H2" t="n">
-        <v>0.130953430190469</v>
+        <v>0.123135509453934</v>
       </c>
     </row>
     <row r="3">
@@ -439,25 +439,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0864004803732454</v>
+        <v>0.0663755901033386</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0726828975702627</v>
+        <v>0.0730890805941298</v>
       </c>
       <c r="D3" t="n">
-        <v>0.179747457634012</v>
+        <v>0.181982450618094</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0695571548224767</v>
+        <v>0.0665510724281001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0927669197782072</v>
+        <v>0.0832313846425918</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0843017054681842</v>
+        <v>0.0844492598419795</v>
       </c>
       <c r="H3" t="n">
-        <v>0.154114453720929</v>
+        <v>0.155129950799331</v>
       </c>
     </row>
     <row r="4">
@@ -465,25 +465,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.398672425347852</v>
+        <v>0.400025790469245</v>
       </c>
       <c r="C4" t="n">
-        <v>0.502869949644566</v>
+        <v>0.47993612835093</v>
       </c>
       <c r="D4" t="n">
-        <v>0.46407508746193</v>
+        <v>0.436714754792042</v>
       </c>
       <c r="E4" t="n">
-        <v>0.289971410996262</v>
+        <v>0.261621987133222</v>
       </c>
       <c r="F4" t="n">
-        <v>0.328234028094857</v>
+        <v>0.311821161682394</v>
       </c>
       <c r="G4" t="n">
-        <v>0.236978263014128</v>
+        <v>0.234786546938281</v>
       </c>
       <c r="H4" t="n">
-        <v>0.29187371879788</v>
+        <v>0.296859963474611</v>
       </c>
     </row>
     <row r="5">
@@ -491,25 +491,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0.352796797369727</v>
+        <v>0.340282418425601</v>
       </c>
       <c r="C5" t="n">
-        <v>0.295037221949398</v>
+        <v>0.300880545565052</v>
       </c>
       <c r="D5" t="n">
-        <v>0.204696631362714</v>
+        <v>0.217820187223031</v>
       </c>
       <c r="E5" t="n">
-        <v>0.37619701004451</v>
+        <v>0.411581804141696</v>
       </c>
       <c r="F5" t="n">
-        <v>0.370503490415766</v>
+        <v>0.400981119612476</v>
       </c>
       <c r="G5" t="n">
-        <v>0.457888355158114</v>
+        <v>0.446681372932298</v>
       </c>
       <c r="H5" t="n">
-        <v>0.340348648763688</v>
+        <v>0.329126045564964</v>
       </c>
     </row>
     <row r="6">
@@ -517,25 +517,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>0.135593456024617</v>
+        <v>0.165785673765086</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0948654286668679</v>
+        <v>0.107677953387753</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0996674209159439</v>
+        <v>0.0993241248012372</v>
       </c>
       <c r="E6" t="n">
-        <v>0.206263355371186</v>
+        <v>0.200605469980893</v>
       </c>
       <c r="F6" t="n">
-        <v>0.157504100172448</v>
+        <v>0.152847632715726</v>
       </c>
       <c r="G6" t="n">
-        <v>0.178315083947205</v>
+        <v>0.199193143584173</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0827097485270357</v>
+        <v>0.0957485307071601</v>
       </c>
     </row>
   </sheetData>
